--- a/api/v2/app/e-lkh/modules/Registration/Templates/document.xlsx
+++ b/api/v2/app/e-lkh/modules/Registration/Templates/document.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$H$21</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
-    <t>DATA PEGAWAI</t>
-  </si>
-  <si>
     <t>Nama Pegawai</t>
   </si>
   <si>
@@ -46,16 +43,19 @@
     <t>Unit Kerja</t>
   </si>
   <si>
-    <t>Organisasi</t>
-  </si>
-  <si>
-    <t>DATA AKUN</t>
-  </si>
-  <si>
     <t>Alamat Email</t>
   </si>
   <si>
     <t>Group Akses</t>
+  </si>
+  <si>
+    <t>Divisi</t>
+  </si>
+  <si>
+    <t>1. DATA PEGAWAI</t>
+  </si>
+  <si>
+    <t>2. DATA AKUN APLIKASI</t>
   </si>
 </sst>
 </file>
@@ -88,14 +88,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -110,12 +108,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -203,11 +201,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,6 +278,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,15 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -615,11 +660,11 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,9 +672,9 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,13 +682,13 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="E6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,13 +696,13 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="E7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,13 +710,13 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="20"/>
+      <c r="E8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,13 +724,13 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,27 +738,27 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="20"/>
+      <c r="E10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="20"/>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,13 +766,13 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="20"/>
+      <c r="E12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,13 +780,13 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="E13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,9 +794,9 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,11 +804,11 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,9 +816,9 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,13 +826,13 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="E17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,13 +840,13 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,6 +883,7 @@
   <mergeCells count="1">
     <mergeCell ref="B11:C11"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
